--- a/DOWNLOADS/EDITAIS/U_926590_E_900012025_30-09-2025_09h00m/U_926590_E_900012025_30-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_926590_E_900012025_30-09-2025_09h00m/U_926590_E_900012025_30-09-2025_09h00m_master.xlsx
@@ -67,16 +67,16 @@
     <t>Câmera digital Câmera Digital Resolução: 1920 X 1080 Pixels, Zoom Óptico: Mínimo 7xX, Terminal Conexão Saída: Usb, Características Adicionais: Foco Automático, Conectividade Wi-Fi, Nfc, Alimentação Câmera: Bateria Recarregável E Adaptador Para Ac 110/220, Sensibilidade: Sensor De Imagem Cmos 24.2mp, Tipo Monitor: Lcd De 3.2 Pol, Formato De Gravação: Gravação De Vídeo Full Hd 1080p A 60 Fps</t>
   </si>
   <si>
-    <t>Processador 13º? Geração - frequência mínima 3.4 Ghz até 4.6 GHz, 8 Núcleos 12 threads, 12 MB cache; Sistema Operacional: Windows 11 Pro, Português, Comprovação Fiscal da Procedência; Tela: Full HD de 15.6" (1920x1080), anti-reflexivo, 60Hz, Câmera HD 720p com microfone ; Memória: 16 GB DDR4 3.200MT/s — expansível até 40 GB; Armazenamento: SSD de 512GB PCle NVME M.2 2242, 4º Geração; Teclado na cor cinza - Português BR; Conexões: 1x HDMI 1.4b / 1x USB-C 3.1/ 1x USB 2.0 / 1x USB 3.0 / 1x Ethernet Giga; Wireless: Intelº Wi-Fi 6e 5.1; Bateria de 2 Células e 38 Whr; Qualificação ENERGY STAR-8.0, ROHS,EPEAT; Fonte de/alimentação: GA 65 Watts; Cabo de alimentação de no mínimo 1 metro; Garantia: Mínimo 1 Ano de serviço de hardware com serviço no local/em domicílio após o diagnóstico remoto — comprovada do fabricante; Microsoft Office Home e Business 2024 — Genuinidade através de comprovação fiscal. Referência: Lenovo V15 (similar ou superior)</t>
-  </si>
-  <si>
-    <t>TELA AMOLED IMERSIVA 11 POLEGADAS: Tela Resolução: WOXGA (2560x1600); Processador: Qualcom Snapdragon 8; Armazenamento Interno 256 Gb; Memória RAM 12 GB; Sistema Operacional Abdroid 13.0; Câmera Traseira: 13 MP; Câmera Frontal: 12 MP — Ultra Wide; Conectividade: Bluetooth e Wi-fi; Rede Móvel 5G; Bateria com capacidade 8.400 mAh; Conexão USB 3.2; Localização GPS; Medindo: 25,48 x 16,58 x 0,59 Cm (A x L x P); Possui: 1 caneta S-Pen e 1 capa teclado 1 Carregador 15W; Garantia Mínima: 12 (doze) meses Referência: SAMSUNG/ Galaxy TAB S9 (similar ou superior)</t>
-  </si>
-  <si>
-    <t>Sistema de projeção: Tecnologia 3LCD de 3 chips Modo de projeção: Frontral / Traseiro / Teto Painel LCD: 0,59 polegadas (C2fine) Método de projeção: Matriz ativa TFT de/polissilício Número de pixels: 1.024.000 pixels (1.280 px x/800 px) x3 Brilho em cores - Saída de luz colorida: 3.800 lumens1 " ISO 21118 Brilho em branco - Saída de luz branca: 3.800 lumens1 - IDMS 15.4 Razão de aspecto: 16:10 Resolução nativa: 1.280 x 800 (WXGA) Redimensionar: 640 x 480 (VGA), 800 x 600 (SVGA), 1280 x 960 (SXGA2), 1280 x 1024 (SXGA3), 1366 x 768 (WXGAG60O -3), 1400 x 1050 (SXGA+), 1440 x 900 (WXGA+), 1680 x 900 (WXGA++), 1600 x 1200 (UXGAG60) Tipo de lâmpada: 210 W UHE Duração da lâmpada: 8.000 horas (normal); 17.000 horas (Eco) Alcance do Throw -Ratio: 1.30 (Zoom:Wide), 1.56 (Zoom:Tele) Distância de projeção/ tamanho da tela: 33" até 320" (0.91 to 9.07 m) (Zoom:Wide) Correção de Keystone: Vertical: -30º +30º Horizontal: -30º +30º Plug and Play USB: Compatível PC e Mac Razão de contraste: Até 16.000:1 Processamento de cor: 10 bit Reprodução de cor: Até 1 bilhão de cores Temperatura: 41º to 95º F (5º to 35º C) Temperatura de uso: 5 ºC a 40 “C (41 º*F a 104 º*F) Dimensões: 302 mm x 87 mm x 249 mm (largura x altura x profundidade) ; Peso: 2,7 Kg ; Segurança: Kensington Lock , Trava de segurança Voltagem: 100V - 240V AC +/ - 10%, 50/60 Hz Consumo de energia: 100V - 120V: 345 (normal) - 235 (Eco) 220V -240V: 327 (normal) - 225 (Eco) Tipo : Zoom óptico (manual) / Foco (manual) Número F: 1,49 - 1,72 Tamanho da tela: 33" a 320" (0,91 m- 10,89 m) Distância Focal: 16,9 mm - 20,28 mm Razão de zoom: 1 - 1,2 Alcance do Throw -Ratio: 1,30 - 1,56 Conectividade padrão: Entrada de computador x 2 D -sub15 pin Saída de computador x 1 D -sub15 pin HDMIº x 2 RCA Vídeo em amarelo x 1 USB tipo À (para módulo wireless) x 1 USB-tipo B(para atualização de firmware ) x 1/Stereo Mini - Entrada x 2 Stereo-Mini - Saída x 1; R$ -232C x 1 Áudio entrada RCA branco x 1, vermelhox 1 RJ45 x 1 Características: A/V Mute, Freeze, Split, Aspect, Color Mode, Auto, MHL Menu, Volume Distância de operação: 19.7' (6 m) Ângulo de operação: Right / Left: +30 degrees Upper / Lower: +15 degrees Desempenho do monitor: NTSC: 480 lines PAL: 576 lines Sinal de entrada: NTSC / NTSC4.43 / PAL / M -PAL / N -PAL / PAL6O / SECAM Interfaces: 1x USB-A / 1x USB-B / 1x LAN / 2x HDM!I / 2x Computer/ Component / 1x Video / 1x R5-232c / 1x Stereo Mini-jack (Mic) / 1x Monitor Out / Audio 1 &amp; 2/ Audio L&amp; R/ 1x Audio Out Alto-falante: Mono: 5W x 1 Ruído do ventilador: 28 dB / 37 dB Características ecológicas: RoHS compliant e Recyclable product Possui: Controle remoto com 2 baterias AA / Cabo de energia (1,8 m) / Cabo HDMI 1,5 m / Guia de Instalação / Garantia Mínima 12 (doze) meses com rede de suporte autorizada no Brasil. Referência: EPSON/W 49 (similar ou superior)</t>
-  </si>
-  <si>
-    <t>Aquisição de 5 câmeras corporais (bodycam online) de alta performance, com resolução mínima de 2 K e recursos avançados de segurança, android 4G; com bateria de autonomia mínima de 12 horas de gravação contínua. Capacidade de armazenamento de até 256GB; Compressão de vídeo H.264/H.265; Grau de proteção mínimo IP67 GPS Embutido; Wi-fi Embutido, Garantia mínima de 12 meses; - 5 Cartões de memória de 256GB CLASSE 10 compatível com a bodycam; - 5 Cintos de fixação peitoral ajustável compatível com a bodycam de modo a fixa-la no cinto de maneira estável e segura. -Softaware compatível para utilização das bodycams, - Dock station touch screen com no mínimo 8 portas compatível com as bodycams. Referência: Hikvision, Hytera, similar ou superior.</t>
+    <t>Processador 13ª Geração - frequência mínima 3.4 Ghz até 4.6 GHz, 8 Núcleos 12 threads, 12 MB cache; Sistema Operacional: Windows 11 Pro, Português, Comprovação Fiscal da Procedência; Tela: Full HD de 15.6" (1920x1080), anti-reflexivo, 60Hz, Câmera HD 720p com microfone ; Memória: 16 GB DDR4 3.200MT/s – expansível até 40 GB; Armazenamento: SSD de 512GB PCIe NVME M.2 2242, 4ª Geração; Teclado na cor cinza - Português BR; Conexões: 1x HDMI 1.4b / 1x USB-C 3.1 / 1x USB 2.0 / 1x USB 3.0 / 1x Ethernet Giga; Wireless: Intel® Wi-Fi 6 e 5.1; Bateria de 2 Células e 38 Whr; Qualificação ENERGY STAR 8.0, RoHS, EPEAT; Fonte de alimentação: CA 65 Watts; Cabo de alimentação de no mínimo 1 metro; Garantia: Mínimo 1 Ano de serviço de hardware com serviço no local/em domicílio após o diagnóstico remoto – comprovada do fabricante; Microsoft Office Home e Business 2024 – Genuinidade através de comprovação fiscal. Referência: Lenovo V15 (similar ou superior)</t>
+  </si>
+  <si>
+    <t>TABLET TELA AMOLED IMERSIVA 11 POLEGADAS: Tela Resolução: WQXGA (2560x1600); Processador: Qualcom Snapdragon 8; Armazenamento Interno 256 Gb; Memória RAM 12 GB; Sistema Operacional Abdroid 13.0; Câmera Traseira: 13 MP; Câmera Frontal: 12 MP – Ultra Wide; Conectividade: Bluetooth e Wi-fi; Rede Móvel 5G; Bateria com capacidade 8.400 mAh; Conexão USB 3.2; Localização GPS; Medindo: 25,48 x 16,58 x 0,59 Cm (A x L x P); Possui: 1 caneta S-Pen e 1 capa teclado 1 Carregador 15W; Garantia Mínima: 12 (doze) meses Referência: SAMSUNG/ Galaxy TAB S9 (similar ou superior)</t>
+  </si>
+  <si>
+    <t>PROJETOR MULTIMÍDIA: Sistema de projeção: Tecnologia 3LCD de 3 chips Modo de projeção: Frontral / Traseiro / Teto Painel LCD: 0,59 polegadas (C2fine) Método de projeção: Matriz ativa TFT de polissilício Número de pixels: 1.024.000 pixels (1.280 px x 800 px) x 3 Brilho em cores - Saída de luz colorida: 3.800 lumens1 - ISO 21118 Brilho em branco - Saída de luz branca: 3.800 lumens1 - IDMS 15.4 Razão de aspecto: 16:10 Resolução nativa: 1.280 x 800 (WXGA) Redimensionar: 640 x 480 (VGA), 800 x 600 (SVGA), 1280 x 960 (SXGA2), 1280 x 1024 (SXGA3), 1366 x 768 (WXGA60 -3), 1400 x 1050 (SXGA+), 1440 x 900 (WXGA+), 1680 x 900 (WXGA++), 1600 x 1200 (UXGA60) Tipo de lâmpada: 210 W UHE Duração da lâmpada: 8.000 horas (normal); 17.000 horas (Eco) Alcance do Throw -Ratio: 1.30 (Zoom:Wide), 1.56 (Zoom:Tele) Distância de projeção/ tamanho da tela: 33" até 320" (0.91 to 9.07 m) (Zoom:Wide) Correção de Keystone: Vertical: -30° +30º Horizontal: -30° +30° Plug and Play USB: Compatível PC e Mac Razão de contraste: Até 16.000:1 Processamento de cor: 10 bit Reprodução de cor: Até 1 bilhão de cores Temperatura: 41° to 95° F (5° to 35° C) Temperatura de uso: 5 °C a 40 °C (41 °F a 104 °F) Dimensões: 302 mm x 87 mm x 249 mm (largura x altura x profundidade) ; Peso: 2,7 Kg ; Segurança: Kensington Lock , Trava de segurança Voltagem: 100V - 240V AC +/ - 10%, 50/60 Hz Consumo de energia: 100V -120V: 345 (normal) - 235 (Eco) 220V -240V: 327 (normal) - 225 (Eco) Tipo : Zoom óptico (manual) / Foco (manual) Número F: 1,49 - 1,72 Tamanho da tela: 33" a 320" (0,91 m - 10,89 m) Distância Focal: 16,9 mm - 20,28 mm Razão de zoom: 1 - 1,2 Alcance do Throw -Ratio: 1,30 - 1,56 Conectividade padrão: Entrada de computador x 2 D -sub15 pin Saída de computador x 1 D -sub15 pin HDMI® x 2 RCA Vídeo em amarelo x 1 USB tipo A (para módulo wireless) x 1 USB tipo B (para atualização de firmware ) x 1 Stereo Mini - Entrada x 2 Stereo Mini - Saída x 1; RS -232C x 1 Áudio entrada RCA branco x 1, vermelho x 1 RJ45 x 1 Características: A/V Mute, Freeze, Split, Aspect, Color Mode, Auto, MHL Menu, Volume Distância de operação: 19.7' (6 m) Ângulo de operação: Right / Left: ±30 degrees Upper / Lower: ±15 degrees Desempenho do monitor: NTSC: 480 lines PAL: 576 lines Sinal de entrada: NTSC / NTSC4.43 / PAL / M -PAL / N -PAL / PAL60 / SECAM Interfaces: 1x USB-A / 1x USB-B / 1x LAN / 2x HDMI / 2x Computer/ Component / 1x Video / 1x RS-232c / 1x Stereo Mini-jack (Mic) / 1x Monitor Out / Audio 1 &amp; 2 / Audio L &amp; R / 1x Audio Out Alto-falante: Mono: 5W x 1 Ruído do ventilador: 28 dB / 37 dB Características ecológicas: RoHS compliant e Recyclable product Possui: Controle remoto com 2 baterias AA / Cabo de energia (1,8 m) / Cabo HDMI 1,5 m / Guia de Instalação / Garantia Mínima 12 (doze) meses com rede de suporte autorizada no Brasil. Referência: EPSON/W 49 (similar ou superior)</t>
+  </si>
+  <si>
+    <t>Bodycam e acessórios: Aquisição de 5 câmeras corporais (bodycam online) de alta performance, com resolução mínima de 2 K e recursos avançados de segurança, android 4G; com bateria de autonomia mínima de 12 horas de gravação contínua. Capacidade de armazenamento de até 256GB; Compressão de vídeo H.264/H.265; Grau de proteção mínimo IP67 GPS Embutido; Wi-fi Embutido, Garantia mínima de 12 meses; - 5 Cartões de memória de 256GB CLASSE 10 compatível com a bodycam; - 5 Cintos de fixação peitoral ajustável compatível com a bodycam de modo a fixa-la no cinto de maneira estável e segura. -Softaware compatível para utilização das bodycams, - Dock station touch screen com no mínimo 8 portas compatível com as bodycams. Referência: Hikvision, Hytera, similar ou superior.</t>
   </si>
   <si>
     <t>Unidade</t>

--- a/DOWNLOADS/EDITAIS/U_926590_E_900012025_30-09-2025_09h00m/U_926590_E_900012025_30-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_926590_E_900012025_30-09-2025_09h00m/U_926590_E_900012025_30-09-2025_09h00m_master.xlsx
@@ -67,16 +67,16 @@
     <t>Câmera digital Câmera Digital Resolução: 1920 X 1080 Pixels, Zoom Óptico: Mínimo 7xX, Terminal Conexão Saída: Usb, Características Adicionais: Foco Automático, Conectividade Wi-Fi, Nfc, Alimentação Câmera: Bateria Recarregável E Adaptador Para Ac 110/220, Sensibilidade: Sensor De Imagem Cmos 24.2mp, Tipo Monitor: Lcd De 3.2 Pol, Formato De Gravação: Gravação De Vídeo Full Hd 1080p A 60 Fps</t>
   </si>
   <si>
-    <t>Notebook</t>
-  </si>
-  <si>
-    <t>TABLET TELA AMOLED IMERSIVA 11</t>
-  </si>
-  <si>
-    <t>PROJETOR MULTIMÍDIA: Sistema de</t>
-  </si>
-  <si>
-    <t>Bodycam e acessórios:</t>
+    <t>Processador 13ª Geração - frequência mínima 3.4 Ghz até 4.6 GHz, 8 Núcleos 12 threads, 12 MB cache; Sistema Operacional: Windows 11 Pro, Português, Comprovação Fiscal da Procedência; Tela: Full HD de 15.6" (1920x1080), anti-reflexivo, 60Hz, Câmera HD 720p com microfone ; Memória: 16 GB DDR4 3.200MT/s – expansível até 40 GB; Armazenamento: SSD de 512GB PCIe NVME M.2 2242, 4ª Geração; Teclado na cor cinza - Português BR; Conexões: 1x HDMI 1.4b / 1x USB-C 3.1 / 1x USB 2.0 / 1x USB 3.0 / 1x Ethernet Giga; Wireless: Intel® Wi‑Fi 6 e 5.1; Bateria de 2 Células e 38 Whr; Qualificação ENERGY STAR 8.0, RoHS, EPEAT; Fonte de alimentação: CA 65 Watts; Cabo de alimentação de no mínimo 1 metro; Garantia: Mínimo 1 Ano de serviço de hardware com serviço no local/em domicílio após o diagnóstico remoto – comprovada do fabricante; Microsoft Office Home e Business 2024 – Genuinidade através de comprovação fiscal. Referência: Lenovo V15 (similar ou superior)</t>
+  </si>
+  <si>
+    <t>Processador: Qualcomm Snapdragon 8; Armazenamento Interno 256 Gb; Memória RAM 12 GB; Sistema Operacional Android 13.0; Câmera Traseira: 13 MP; Câmera Frontal: 12 MP – Ultra Wide; Conectividade: Bluetooth e Wi‑fi; Rede Móvel 5G; Bateria com capacidade 8.400 mAh; Conexão USB 3.2; Localização GPS; Medindo: 25,48 x 16,58 x 0,59 Cm (A x L x P); Possui: 1 caneta S‐Pen e 1 capa teclado e 1 Carregador 15W; Garantia Mínima: 12 (doze) meses; Referência: Samsung Galaxy Tab S9 (similar ou superior)</t>
+  </si>
+  <si>
+    <t>Tipo de lâmpada: 210 W UHE; Duração da lâmpada: 8.000 horas (normal); 17.000 horas (Eco); Alcance do Throw -Ratio: 1.30 (Zoom:Wide), 1.56 (Zoom:Tele); Distância de projeção/ tamanho da tela: 33" até 320" (0.91 to 9.07 m); Correção de Keystone: Vertical: -30° +30º Horizontal: -30° +30º; Plug and Play USB: Compatível PC e Mac; Razão de contraste: Até 16.000:1; Processamento de cor: 10 bit; Reprodução de cor: Até 1 bilhão de cores; Temperatura: 41° to 95° F (5° to 35° C); Temperatura de uso: 5 °C a 40 °C (41 °F a 104 °F); Dimensões: 302 mm x 87 mm x 249 mm; Peso: 2,7 Kg; Segurança: Kensington Lock , Trava de segurança; Voltagem: 100V - 240V AC +/ - 10%, 50/60 Hz; Consumo de energia: 100V -120V: 345 (normal) - 235 (Eco) 220V -240V: 327 (normal) - 225 (Eco); Tipo : Zoom óptico (manual) / Foco (manual); Número F: 1.49 - 1.72; Tamanho da tela: 33" a 320" (0.91 m - 10.89 m); Distância Focal: 16.9 mm - 20.28 mm; Razão de zoom: 1 - 1.2; Interfaces: 1x USB-A / 1x USB-B / 1x LAN / 2x HDMI / 2x Computer/Component / 1x Video / 1x RS‑232c / 1x Stereo Mini‑jack (Mic) / 1x Monitor Out / Audio 1 &amp; 2 / Audio L &amp; R / 1x Audio Out Alto-falante: Mono 5W; Referência: EPSON/W 49 (similar ou superior)</t>
+  </si>
+  <si>
+    <t>5 câmeras corporais (bodycam online) de alta performance, resolução mínima de 2 K, recursos avançados de segurança, Android 4G; bateria de autonomia mínima de 12 horas; capacidade de armazenamento até 256GB; compressão vídeo H.264/H.265; grau de proteção mínimo IP67; GPS embutido; Wi‑fi embutido; garantia mínima 12 meses; 5 cartões de memória de 256GB classe 10 compatível com a bodycam; 5 cintos de fixação peitoral ajustável compatível com a bodycam; software compatível para utilização das bodycams; dock station touch screen com no mínimo 8 portas compatível com as bodycams. Referência: Hikvision, Hytera, similar ou superior</t>
   </si>
   <si>
     <t>Unidade</t>
